--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="24915" windowHeight="12600"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -192,11 +192,24 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -517,13 +530,13 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -533,7 +546,9 @@
       <c r="B1" s="15">
         <v>45309</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="16">
+        <v>45316</v>
+      </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
@@ -544,7 +559,9 @@
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
     </row>
@@ -555,7 +572,9 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
@@ -566,7 +585,9 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
@@ -577,7 +598,9 @@
       <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
     </row>
@@ -588,7 +611,9 @@
       <c r="B6" s="12">
         <v>0</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
     </row>
@@ -599,7 +624,9 @@
       <c r="B7" s="12">
         <v>0</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
@@ -610,7 +637,9 @@
       <c r="B8" s="12">
         <v>1</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
     </row>
@@ -621,7 +650,9 @@
       <c r="B9" s="12">
         <v>0</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
     </row>
@@ -632,7 +663,9 @@
       <c r="B10" s="12">
         <v>0</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
@@ -643,7 +676,9 @@
       <c r="B11" s="12">
         <v>0</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
@@ -654,7 +689,9 @@
       <c r="B12" s="12">
         <v>1</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
@@ -665,7 +702,9 @@
       <c r="B13" s="12">
         <v>0</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
     </row>
@@ -676,7 +715,9 @@
       <c r="B14" s="12">
         <v>1</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
@@ -687,7 +728,9 @@
       <c r="B15" s="12">
         <v>1</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
     </row>
@@ -698,7 +741,9 @@
       <c r="B16" s="12">
         <v>0</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
     </row>
@@ -709,7 +754,9 @@
       <c r="B17" s="12">
         <v>1</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
@@ -720,7 +767,9 @@
       <c r="B18" s="12">
         <v>0</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
@@ -731,7 +780,9 @@
       <c r="B19" s="12">
         <v>0</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
     </row>
@@ -742,7 +793,9 @@
       <c r="B20" s="12">
         <v>0</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
     </row>
@@ -753,7 +806,9 @@
       <c r="B21" s="12">
         <v>0</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
     </row>
@@ -764,7 +819,9 @@
       <c r="B22" s="12">
         <v>0</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
     </row>
@@ -775,7 +832,9 @@
       <c r="B23" s="12">
         <v>0</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
     </row>
@@ -786,7 +845,9 @@
       <c r="B24" s="12">
         <v>1</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
@@ -797,7 +858,9 @@
       <c r="B25" s="12">
         <v>0</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
     </row>
@@ -808,7 +871,9 @@
       <c r="B26" s="12">
         <v>0</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
     </row>
@@ -819,7 +884,9 @@
       <c r="B27" s="12">
         <v>0</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
     </row>
@@ -830,7 +897,9 @@
       <c r="B28" s="12">
         <v>0</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
     </row>
@@ -844,7 +913,7 @@
       </c>
       <c r="C29" s="11">
         <f t="shared" ref="C29:E29" si="0">SUM(C2:C28)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
@@ -865,7 +934,7 @@
       </c>
       <c r="C30" s="14">
         <f t="shared" ref="C30:E30" si="1">(C29/27)*100</f>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="D30" s="14">
         <f t="shared" si="1"/>
@@ -877,6 +946,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:E28">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -199,17 +199,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -529,14 +519,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -549,7 +539,9 @@
       <c r="C1" s="16">
         <v>45316</v>
       </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="15">
+        <v>45330</v>
+      </c>
       <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -562,7 +554,9 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -575,7 +569,9 @@
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -588,7 +584,9 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -601,7 +599,9 @@
       <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,7 +614,9 @@
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -627,7 +629,9 @@
       <c r="C7" s="12">
         <v>0</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -640,7 +644,9 @@
       <c r="C8" s="12">
         <v>0</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -653,7 +659,9 @@
       <c r="C9" s="12">
         <v>1</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -666,7 +674,9 @@
       <c r="C10" s="12">
         <v>1</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -679,7 +689,9 @@
       <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -692,7 +704,9 @@
       <c r="C12" s="12">
         <v>1</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,7 +719,9 @@
       <c r="C13" s="12">
         <v>0</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -718,7 +734,9 @@
       <c r="C14" s="12">
         <v>0</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -731,7 +749,9 @@
       <c r="C15" s="12">
         <v>1</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -744,7 +764,9 @@
       <c r="C16" s="12">
         <v>1</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -757,7 +779,9 @@
       <c r="C17" s="12">
         <v>1</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -770,7 +794,9 @@
       <c r="C18" s="12">
         <v>1</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -783,7 +809,9 @@
       <c r="C19" s="12">
         <v>1</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -796,7 +824,9 @@
       <c r="C20" s="12">
         <v>1</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -809,7 +839,9 @@
       <c r="C21" s="12">
         <v>1</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -822,7 +854,9 @@
       <c r="C22" s="12">
         <v>0</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,7 +869,9 @@
       <c r="C23" s="12">
         <v>1</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -848,7 +884,9 @@
       <c r="C24" s="12">
         <v>1</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -861,7 +899,9 @@
       <c r="C25" s="12">
         <v>0</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -874,7 +914,9 @@
       <c r="C26" s="12">
         <v>1</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -887,7 +929,9 @@
       <c r="C27" s="12">
         <v>0</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -900,7 +944,9 @@
       <c r="C28" s="12">
         <v>0</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -917,7 +963,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="0"/>
@@ -938,7 +984,7 @@
       </c>
       <c r="D30" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="E30" s="14">
         <f t="shared" si="1"/>
@@ -947,10 +993,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E28">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
